--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>BC gender history</t>
+    <t>BC Gender History</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1575,7 +1575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>106</v>
       </c>
@@ -1585,13 +1585,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -2089,13 +2089,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="124">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,6 +383,19 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t>sourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-sourceId-extension}
+</t>
+  </si>
+  <si>
+    <t>BC SourceID and UserID</t>
+  </si>
+  <si>
+    <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
   </si>
   <si>
     <t>base64Binary
@@ -714,7 +727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2277,23 +2290,25 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2302,24 +2317,22 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>75</v>
@@ -2361,27 +2374,27 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2389,10 +2402,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>
@@ -2404,22 +2417,24 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>75</v>
@@ -2461,10 +2476,10 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -2473,14 +2488,114 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>105</v>
       </c>
     </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2490,7 +2605,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -285,9 +285,6 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -308,7 +305,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>businessDates</t>
+    <t>gender</t>
   </si>
   <si>
     <t>Y</t>
@@ -345,7 +342,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -353,6 +350,13 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -362,27 +366,26 @@
 </t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>valueCode</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t>businessDates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+    <t>BC Business Dates</t>
+  </si>
+  <si>
+    <t>The effective dates for the parent element.</t>
   </si>
   <si>
     <t>sourceID</t>
@@ -727,7 +730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1094,7 +1097,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1109,13 +1112,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1154,19 +1157,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1189,20 +1192,20 @@
         <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1211,13 +1214,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1268,7 +1271,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1388,7 +1391,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1411,13 +1414,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1456,19 +1459,19 @@
         <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1488,7 +1491,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1511,16 +1514,16 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1528,7 +1531,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>75</v>
@@ -1570,7 +1573,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>81</v>
@@ -1585,12 +1588,12 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
         <v>105</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1604,7 +1607,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1613,13 +1616,13 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1658,19 +1661,17 @@
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1682,18 +1683,18 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>75</v>
@@ -1706,7 +1707,7 @@
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1715,13 +1716,13 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1748,13 +1749,11 @@
         <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>75</v>
@@ -1772,41 +1771,43 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" hidden="true">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1815,13 +1816,13 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1872,29 +1873,31 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>75</v>
       </c>
@@ -1903,10 +1906,10 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -1915,13 +1918,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1960,19 +1963,19 @@
         <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2015,16 +2018,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2032,7 +2035,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
@@ -2074,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>81</v>
@@ -2089,12 +2092,12 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2102,13 +2105,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2117,13 +2120,13 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2162,17 +2165,19 @@
         <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2184,418 +2189,14 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ18">
+  <autoFilter ref="A1:AJ14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2605,7 +2206,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -742,39 +742,39 @@
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="46.63671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$15</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -399,6 +399,19 @@
   </si>
   <si>
     <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
+  </si>
+  <si>
+    <t>genderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-genderIdentity}
+</t>
+  </si>
+  <si>
+    <t>The patient's gender identity</t>
+  </si>
+  <si>
+    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
   </si>
   <si>
     <t>base64Binary
@@ -730,7 +743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -740,7 +753,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.5703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1993,23 +2006,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2018,24 +2033,22 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
@@ -2077,27 +2090,27 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2105,10 +2118,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2120,22 +2133,24 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>75</v>
@@ -2177,10 +2192,10 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -2189,14 +2204,114 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>104</v>
       </c>
     </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ14">
+  <autoFilter ref="A1:AJ15">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2206,7 +2321,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI13">
+  <conditionalFormatting sqref="A2:AI14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,53 +256,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>gender</t>
@@ -994,7 +994,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1013,25 +1013,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1082,13 +1082,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1097,12 +1097,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1125,13 +1125,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1170,19 +1170,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1194,7 +1194,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>94</v>
@@ -1227,13 +1227,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1284,7 +1284,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1296,7 +1296,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1315,25 +1315,25 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1384,13 +1384,13 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
@@ -1399,7 +1399,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1427,13 +1427,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1472,19 +1472,19 @@
         <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1496,7 +1496,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -1512,10 +1512,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1589,10 +1589,10 @@
         <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
@@ -1614,10 +1614,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>95</v>
@@ -1690,7 +1690,7 @@
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
@@ -1714,10 +1714,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -1790,7 +1790,7 @@
         <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>75</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>116</v>
@@ -1814,10 +1814,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>95</v>
@@ -1886,7 +1886,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1898,7 +1898,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>120</v>
@@ -1919,7 +1919,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>95</v>
@@ -1988,7 +1988,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2000,7 +2000,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>124</v>
@@ -2021,7 +2021,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>95</v>
@@ -2090,7 +2090,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2102,7 +2102,7 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -2118,10 +2118,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2195,10 +2195,10 @@
         <v>103</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
@@ -2298,7 +2298,7 @@
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$15</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T22:48:36+00:00</t>
+    <t>2022-12-19T23:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -305,16 +308,28 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Extension.extension:gender</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>Extension.extension:gender.id</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:gender.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:gender.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -339,6 +354,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:gender.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
@@ -366,6 +384,9 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:gender.value[x]:valueCode</t>
+  </si>
+  <si>
     <t>valueCode</t>
   </si>
   <si>
@@ -373,6 +394,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t>Extension.extension:businessDates</t>
   </si>
   <si>
     <t>businessDates</t>
@@ -388,6 +412,9 @@
     <t>The effective dates for the parent element.</t>
   </si>
   <si>
+    <t>Extension.extension:sourceID</t>
+  </si>
+  <si>
     <t>sourceID</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
   </si>
   <si>
     <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
+  </si>
+  <si>
+    <t>Extension.extension:genderIdentity</t>
   </si>
   <si>
     <t>genderIdentity</t>
@@ -743,7 +773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -752,42 +782,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.5703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.63671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.63671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -899,93 +929,96 @@
       <c r="AJ1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -994,38 +1027,41 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>82</v>
@@ -1033,301 +1069,310 @@
       <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>82</v>
@@ -1335,983 +1380,1013 @@
       <c r="L6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AC9" s="2"/>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>118</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ15">
+  <autoFilter ref="A1:AK15">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -961,7 +965,7 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -1027,7 +1031,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -1038,10 +1042,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1052,7 +1056,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1064,13 +1068,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1121,13 +1125,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1136,15 +1140,15 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1152,7 +1156,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
@@ -1167,13 +1171,13 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1212,19 +1216,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1236,7 +1240,7 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1244,13 +1248,13 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1263,7 +1267,7 @@
         <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>76</v>
@@ -1272,13 +1276,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1329,7 +1333,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1341,7 +1345,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -1349,10 +1353,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1363,7 +1367,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1375,13 +1379,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1432,13 +1436,13 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
@@ -1447,15 +1451,15 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1478,13 +1482,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1523,19 +1527,19 @@
         <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -1547,7 +1551,7 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -1555,10 +1559,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1566,10 +1570,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -1581,16 +1585,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1598,7 +1602,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1640,13 +1644,13 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
@@ -1655,15 +1659,15 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1671,13 +1675,13 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>76</v>
@@ -1686,13 +1690,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1731,53 +1735,53 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -1789,13 +1793,13 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1822,11 +1826,11 @@
         <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>76</v>
@@ -1844,46 +1848,46 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
@@ -1892,13 +1896,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1949,7 +1953,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -1961,7 +1965,7 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -1969,13 +1973,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -1985,10 +1989,10 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -1997,13 +2001,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2054,7 +2058,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2066,7 +2070,7 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2074,13 +2078,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -2090,10 +2094,10 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -2102,13 +2106,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2159,7 +2163,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2171,7 +2175,7 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2179,10 +2183,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2190,10 +2194,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2205,16 +2209,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2264,13 +2268,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -2279,15 +2283,15 @@
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2310,13 +2314,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2367,22 +2371,22 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T21:31:48+00:00</t>
+    <t>2023-06-28T23:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -374,11 +263,10 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -386,18 +274,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.extension:gender.value[x]:valueCode</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>Extension.extension:businessDates</t>
@@ -571,10 +447,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -777,7 +653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -786,1611 +662,1393 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="46.63671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>75</v>
+      <c r="AJ1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="I8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AK8" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="Y10" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Z10" t="s" s="2">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK15">
+  <autoFilter ref="A1:AK13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2400,7 +2058,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI14">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -197,10 +201,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.extension:gender</t>
   </si>
   <si>
@@ -263,10 +263,11 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -274,6 +275,18 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.extension:gender.value[x]:valueCode</t>
+  </si>
+  <si>
+    <t>valueCode</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>Extension.extension:businessDates</t>
@@ -653,7 +666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -662,7 +675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.13671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -686,10 +699,10 @@
     <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="46.63671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="11.4375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -795,7 +808,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>39</v>
@@ -803,10 +816,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -817,7 +830,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -829,13 +842,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -886,13 +899,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -901,15 +914,15 @@
         <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -917,7 +930,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>41</v>
@@ -932,13 +945,13 @@
         <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -977,19 +990,19 @@
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>40</v>
@@ -1001,7 +1014,7 @@
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -1012,7 +1025,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>60</v>
@@ -1037,13 +1050,13 @@
         <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1094,7 +1107,7 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>40</v>
@@ -1106,7 +1119,7 @@
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -1128,7 +1141,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>39</v>
@@ -1140,13 +1153,13 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1197,13 +1210,13 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
@@ -1212,7 +1225,7 @@
         <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1243,13 +1256,13 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1288,19 +1301,19 @@
         <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>40</v>
@@ -1312,7 +1325,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1331,10 +1344,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>39</v>
@@ -1408,10 +1421,10 @@
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
@@ -1436,10 +1449,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>61</v>
@@ -1484,26 +1497,26 @@
         <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB8" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" t="s" s="2">
+      <c r="AC8" s="2"/>
+      <c r="AD8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>81</v>
@@ -1512,7 +1525,7 @@
         <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>39</v>
@@ -1529,7 +1542,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>84</v>
@@ -1539,13 +1552,13 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>39</v>
@@ -1554,13 +1567,13 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1587,13 +1600,11 @@
         <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>39</v>
@@ -1611,43 +1622,43 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>61</v>
@@ -1659,13 +1670,13 @@
         <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1716,7 +1727,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>40</v>
@@ -1728,7 +1739,7 @@
         <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -1736,13 +1747,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>39</v>
@@ -1752,7 +1763,7 @@
         <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>61</v>
@@ -1764,13 +1775,13 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1821,7 +1832,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>40</v>
@@ -1833,7 +1844,7 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>39</v>
@@ -1841,24 +1852,26 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>39</v>
@@ -1867,24 +1880,22 @@
         <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>39</v>
@@ -1926,30 +1937,30 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1957,10 +1968,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>39</v>
@@ -1972,22 +1983,24 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>39</v>
@@ -2029,26 +2042,129 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
       </c>
     </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK13">
+  <autoFilter ref="A1:AK14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2058,7 +2174,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,11 +263,10 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -275,18 +274,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.extension:gender.value[x]:valueCode</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>Extension.extension:businessDates</t>
@@ -666,7 +653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -675,7 +662,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -699,10 +686,10 @@
     <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="46.63671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="11.4375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1497,26 +1484,26 @@
         <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>81</v>
@@ -1542,7 +1529,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>84</v>
@@ -1558,7 +1545,7 @@
         <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>39</v>
@@ -1567,13 +1554,13 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1600,11 +1587,13 @@
         <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Z9" t="s" s="2">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>39</v>
@@ -1622,40 +1611,40 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>52</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>46</v>
@@ -1670,13 +1659,13 @@
         <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1747,13 +1736,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>52</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>39</v>
@@ -1775,13 +1764,13 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1852,26 +1841,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>39</v>
@@ -1880,22 +1867,24 @@
         <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>39</v>
@@ -1937,30 +1926,30 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1968,10 +1957,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>39</v>
@@ -1983,24 +1972,22 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>39</v>
@@ -2042,10 +2029,10 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>46</v>
@@ -2054,117 +2041,14 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK14">
+  <autoFilter ref="A1:AK13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2174,7 +2058,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI13">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T21:08:14+00:00</t>
+    <t>2024-01-19T19:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -653,7 +764,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -665,1390 +776,1505 @@
     <col min="1" max="1" width="36.265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="46.63671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK13">
+  <autoFilter ref="A1:AK14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2058,7 +2284,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient.gender</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
